--- a/biology/Médecine/Association_française_d'urologie/Association_française_d'urologie.xlsx
+++ b/biology/Médecine/Association_française_d'urologie/Association_française_d'urologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_d%27urologie</t>
+          <t>Association_française_d'urologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association française d'urologie, fondée en 1896 et reconnue d'utilité publique par décret du 22 novembre 1925, a pour but la promotion de la science urologique, le développement d'une politique globale de qualité et de sécurité des soins et d'amélioration des pratiques et l'étude de toute question ayant trait aux affections de l'appareil urinaire des deux sexes et de l'appareil génital de l'homme et en particulier :
 la recherche,
@@ -488,7 +500,7 @@
 la pratique professionnelle et son évaluation et la mise en œuvre des programmes d'amélioration de la sécurité des pratiques de la spécialité"
 L'A.F.U. regroupe en 2019, 1 203 membres, dont 976 membres titulaires, 111 membres associés, 65 membres séniors et 51 membres honoraires.
 L'Association est administrée par un conseil d'administration de 24 membres, qui élit un bureau de 6 membres dont le président de l'A.F.U. Le conseil d'administration est habilité à prendre toutes les décisions relatives aux buts de l'association et doit en rendre compte à l'ensemble de ses membres, une fois par an, au cours de l'assemblée générale.
-L'association est un organisme agréé par la Haute Autorité de santé pour le programme d’accréditation en chirurgie urologique[1].
+L'association est un organisme agréé par la Haute Autorité de santé pour le programme d’accréditation en chirurgie urologique.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_d%27urologie</t>
+          <t>Association_française_d'urologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 24 membres du conseil d'administration sont élus, à bulletin secret, pour 3 ans, par l'ensemble des membres de l'association présents pendant la durée du congrès. Les membres sortants sont rééligibles, à l'exception du président. Le conseil d'administration choisit parmi ses membres, au scrutin secret, un bureau composé d'un président, d'un vice-président, d'un secrétaire général, d'un trésorier et d'un secrétaire général adjoint. Les membres du bureau sont élus pour 3 ans. Le président ne peut pas briguer 2 mandats consécutifs ; les autres membres du bureau sont rééligibles.
 Composition du bureau
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_d%27urologie</t>
+          <t>Association_française_d'urologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Liste des Presidents de l Association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1896-1913 : Félix Guyon
 1914-1918 : Guerre
